--- a/datatypes/elements/data-in/icomps-all-valences.xlsx
+++ b/datatypes/elements/data-in/icomps-all-valences.xlsx
@@ -782,7 +782,7 @@
     <t xml:space="preserve">Citrate</t>
   </si>
   <si>
-    <t xml:space="preserve">Edt</t>
+    <t xml:space="preserve">Edta</t>
   </si>
   <si>
     <t xml:space="preserve">Ethylenediaminetetraacetate</t>
@@ -812,7 +812,7 @@
     <t xml:space="preserve">Nitrilotriacetic_acid</t>
   </si>
   <si>
-    <t xml:space="preserve">Ox</t>
+    <t xml:space="preserve">Oxa</t>
   </si>
   <si>
     <t xml:space="preserve">Oxalate</t>
@@ -980,11 +980,11 @@
   </sheetPr>
   <dimension ref="A1:AG124"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y3" activeCellId="1" sqref="C2:C119 Y3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C89" activeCellId="0" sqref="C89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.12"/>
@@ -996,7 +996,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.54"/>
@@ -9932,15 +9932,15 @@
       </c>
       <c r="N110" s="0" t="str">
         <f aca="false">A110</f>
-        <v>Edt</v>
+        <v>Edta</v>
       </c>
       <c r="Q110" s="0" t="str">
         <f aca="false">N110</f>
-        <v>Edt</v>
+        <v>Edta</v>
       </c>
       <c r="W110" s="0" t="str">
         <f aca="false">A110</f>
-        <v>Edt</v>
+        <v>Edta</v>
       </c>
       <c r="X110" s="0" t="str">
         <f aca="false">M110</f>
@@ -10254,15 +10254,15 @@
       </c>
       <c r="N115" s="0" t="str">
         <f aca="false">A115</f>
-        <v>Ox</v>
+        <v>Oxa</v>
       </c>
       <c r="Q115" s="0" t="str">
         <f aca="false">N115</f>
-        <v>Ox</v>
+        <v>Oxa</v>
       </c>
       <c r="W115" s="0" t="str">
         <f aca="false">A115</f>
-        <v>Ox</v>
+        <v>Oxa</v>
       </c>
       <c r="X115" s="0" t="str">
         <f aca="false">M115</f>
@@ -10838,10 +10838,10 @@
   <dimension ref="A1:K119"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C119"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.11"/>
@@ -15809,7 +15809,7 @@
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="str">
         <f aca="false">'icomp.aux'!W110</f>
-        <v>Edt</v>
+        <v>Edta</v>
       </c>
       <c r="B109" s="0" t="str">
         <f aca="false">'icomp.aux'!X110</f>
@@ -16039,7 +16039,7 @@
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="str">
         <f aca="false">'icomp.aux'!W115</f>
-        <v>Ox</v>
+        <v>Oxa</v>
       </c>
       <c r="B114" s="0" t="str">
         <f aca="false">'icomp.aux'!X115</f>
